--- a/ModelFiles/airbnb_04_2023-04_2023.xlsx
+++ b/ModelFiles/airbnb_04_2023-04_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26522"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SupAdmin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{3B546CC6-7185-4DAC-B733-412C007A4E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A73866CE-1A3B-46FD-A644-C938EC424C01}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{3B546CC6-7185-4DAC-B733-412C007A4E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91FE6157-7FB9-4146-BBA5-0775A8FA44F5}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2445" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10703,7 +10703,7 @@
   <dimension ref="A1:O2578"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2260" sqref="G2260"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -10711,6 +10711,7 @@
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="70.7109375" customWidth="1"/>
+    <col min="8" max="8" width="89.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -97008,31 +97009,12 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O2578" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0394ec80-3f17-43d0-8a0a-f2c35f612e53">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0b5c3551-8383-4165-8e29-fcb6c1524c16" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002833C68ECB254E46A2B1B064E5019715" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c333f1589930184ff6bd9e9abf6ec8fa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0394EC80-3F17-43D0-8A0A-F2C35F612E53" xmlns:ns3="0394ec80-3f17-43d0-8a0a-f2c35f612e53" xmlns:ns4="385cac4a-83fd-4e8e-a4db-d44e8beb0c8f" xmlns:ns5="0b5c3551-8383-4165-8e29-fcb6c1524c16" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a043b4a353138303344697476d530922" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="0394EC80-3F17-43D0-8A0A-F2C35F612E53"/>
@@ -97273,14 +97255,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0394ec80-3f17-43d0-8a0a-f2c35f612e53">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0b5c3551-8383-4165-8e29-fcb6c1524c16" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C28DD647-0C68-40A9-ACC1-407AC05D6E38}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B49C928-DE21-4979-A27F-E34C4B014705}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8835B30C-854C-464C-84C0-6CD7844C4420}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C28DD647-0C68-40A9-ACC1-407AC05D6E38}"/>
 </file>